--- a/device.xlsx
+++ b/device.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f671e76ed8b28b49/Projects/Python/Office/AutoOps/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f671e76ed8b28b49/Projects/Python/Home/AutoOps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{FB96EB4A-5F28-4E48-9E0C-E34329BB3471}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FCBC3299-69EE-AD47-BF03-80A57A9191AF}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="8_{FB96EB4A-5F28-4E48-9E0C-E34329BB3471}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5CECB428-2A33-6649-9C8A-1CF6CFB6174E}"/>
   <bookViews>
     <workbookView xWindow="18480" yWindow="11080" windowWidth="28040" windowHeight="17440" xr2:uid="{357B3A11-FABA-9E45-B491-5FE5DD4073D4}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="16">
   <si>
     <t>password</t>
   </si>
@@ -42,24 +42,6 @@
     <t>cisco_ios</t>
   </si>
   <si>
-    <t>192.168.1.111</t>
-  </si>
-  <si>
-    <t>192.168.1.112</t>
-  </si>
-  <si>
-    <t>192.168.1.113</t>
-  </si>
-  <si>
-    <t>192.168.1.114</t>
-  </si>
-  <si>
-    <t>192.168.1.115</t>
-  </si>
-  <si>
-    <t>192.168.1.116</t>
-  </si>
-  <si>
     <t>cisco</t>
   </si>
   <si>
@@ -73,6 +55,33 @@
   </si>
   <si>
     <t>device_type</t>
+  </si>
+  <si>
+    <t>192.168.1.151</t>
+  </si>
+  <si>
+    <t>192.168.1.152</t>
+  </si>
+  <si>
+    <t>192.168.1.161</t>
+  </si>
+  <si>
+    <t>192.168.1.162</t>
+  </si>
+  <si>
+    <t>session_log</t>
+  </si>
+  <si>
+    <t>router01</t>
+  </si>
+  <si>
+    <t>router02</t>
+  </si>
+  <si>
+    <t>switch01</t>
+  </si>
+  <si>
+    <t>switch02</t>
   </si>
 </sst>
 </file>
@@ -430,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF0E1C8B-2669-2F4F-AFDA-7148FE03B9BC}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -443,123 +452,104 @@
     <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
       </c>
       <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" t="s">
-        <v>8</v>
+        <v>2</v>
+      </c>
+      <c r="F5" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
